--- a/ToolsAndScripts/decimal storage calc.xlsx
+++ b/ToolsAndScripts/decimal storage calc.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\excel scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GoogleDrive\TelcobrightProject\ToolsAndScripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B53A5396-0BAC-43BF-BF80-1E66493D9A1C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7590"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,10 +108,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -285,7 +286,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -298,8 +299,36 @@
     <cellStyle name="Output" xfId="2" builtinId="21"/>
     <cellStyle name="Total" xfId="4" builtinId="25"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{D961FA0F-3192-4991-8E9D-B566768F2501}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -607,11 +636,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.25"/>
@@ -725,7 +754,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="4">
-        <f>INDEX($T$3:$T$12,MATCH(F3,$S$3:$S$12))</f>
+        <f t="shared" ref="H3:H10" si="0">INDEX($T$3:$T$12,MATCH(F3,$S$3:$S$12))</f>
         <v>0</v>
       </c>
       <c r="I3" s="4">
@@ -749,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="6">
-        <f>INDEX($T$3:$T$12,MATCH(L3,$S$3:$S$12))</f>
+        <f t="shared" ref="N3:N10" si="1">INDEX($T$3:$T$12,MATCH(L3,$S$3:$S$12))</f>
         <v>2</v>
       </c>
       <c r="O3" s="9">
@@ -804,7 +833,7 @@
         <v>4</v>
       </c>
       <c r="H4" s="4">
-        <f>INDEX($T$3:$T$12,MATCH(F4,$S$3:$S$12))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="4">
@@ -828,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="6">
-        <f>INDEX($T$3:$T$12,MATCH(L4,$S$3:$S$12))</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="O4" s="9">
@@ -840,7 +869,7 @@
         <v>8</v>
       </c>
       <c r="Q4" s="13">
-        <f t="shared" ref="Q4:Q10" si="0">INDEX($X$3:$X$23,MATCH(D4,$W$3:$W$23,0))</f>
+        <f t="shared" ref="Q4:Q10" si="2">INDEX($X$3:$X$23,MATCH(D4,$W$3:$W$23,0))</f>
         <v>999999999</v>
       </c>
       <c r="S4">
@@ -868,59 +897,59 @@
         <v>4</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" ref="D5:D11" si="1">B5-C5</f>
+        <f t="shared" ref="D5:D10" si="3">B5-C5</f>
         <v>9</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" ref="E5:E11" si="2">_xlfn.FLOOR.MATH(D5/9)</f>
+        <f t="shared" ref="E5:E10" si="4">_xlfn.FLOOR.MATH(D5/9)</f>
         <v>1</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" ref="F5:F11" si="3">MOD(D5,9)</f>
+        <f t="shared" ref="F5:F10" si="5">MOD(D5,9)</f>
         <v>0</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" ref="G5:G11" si="4">E5*4</f>
+        <f t="shared" ref="G5:G10" si="6">E5*4</f>
         <v>4</v>
       </c>
       <c r="H5" s="4">
-        <f>INDEX($T$3:$T$12,MATCH(F5,$S$3:$S$12))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" ref="I5:I11" si="5">G5+H5</f>
+        <f t="shared" ref="I5:I10" si="7">G5+H5</f>
         <v>4</v>
       </c>
       <c r="J5" s="6">
-        <f t="shared" ref="J5:J11" si="6">C5</f>
+        <f t="shared" ref="J5:J10" si="8">C5</f>
         <v>4</v>
       </c>
       <c r="K5" s="6">
-        <f t="shared" ref="K5:K11" si="7">_xlfn.FLOOR.MATH(J5/9)</f>
+        <f t="shared" ref="K5:K10" si="9">_xlfn.FLOOR.MATH(J5/9)</f>
         <v>0</v>
       </c>
       <c r="L5" s="6">
-        <f t="shared" ref="L5:L11" si="8">MOD(J5,9)</f>
+        <f t="shared" ref="L5:L10" si="10">MOD(J5,9)</f>
         <v>4</v>
       </c>
       <c r="M5" s="6">
-        <f t="shared" ref="M5:M11" si="9">K5*4</f>
+        <f t="shared" ref="M5:M10" si="11">K5*4</f>
         <v>0</v>
       </c>
       <c r="N5" s="6">
-        <f>INDEX($T$3:$T$12,MATCH(L5,$S$3:$S$12))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="O5" s="9">
-        <f t="shared" ref="O5:O11" si="10">M5+N5</f>
+        <f t="shared" ref="O5:O10" si="12">M5+N5</f>
         <v>2</v>
       </c>
       <c r="P5" s="12">
-        <f t="shared" ref="P5:P11" si="11">I5+O5</f>
+        <f t="shared" ref="P5:P10" si="13">I5+O5</f>
         <v>6</v>
       </c>
       <c r="Q5" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>999999999</v>
       </c>
       <c r="S5">
@@ -930,7 +959,7 @@
         <v>1</v>
       </c>
       <c r="W5">
-        <f t="shared" ref="W5:W40" si="12">W4+1</f>
+        <f t="shared" ref="W5:W23" si="14">W4+1</f>
         <v>2</v>
       </c>
       <c r="X5" s="14">
@@ -948,59 +977,59 @@
         <v>8</v>
       </c>
       <c r="D6" s="4">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="K6" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="M6" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="E6" s="4">
+        <v>4</v>
+      </c>
+      <c r="O6" s="9">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="P6" s="12">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="Q6" s="13">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="G6" s="4">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="H6" s="4">
-        <f>INDEX($T$3:$T$12,MATCH(F6,$S$3:$S$12))</f>
-        <v>2</v>
-      </c>
-      <c r="I6" s="4">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="J6" s="6">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="K6" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="6">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="M6" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="6">
-        <f>INDEX($T$3:$T$12,MATCH(L6,$S$3:$S$12))</f>
-        <v>4</v>
-      </c>
-      <c r="O6" s="9">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="P6" s="12">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="Q6" s="13">
-        <f t="shared" si="0"/>
         <v>999999999999</v>
       </c>
       <c r="S6">
@@ -1010,14 +1039,14 @@
         <v>2</v>
       </c>
       <c r="W6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="X6" s="14">
         <v>999</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="24" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1028,59 +1057,59 @@
         <v>8</v>
       </c>
       <c r="D7" s="4">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="J7" s="6">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="K7" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="M7" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="E7" s="4">
+        <v>4</v>
+      </c>
+      <c r="O7" s="9">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="P7" s="12">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="Q7" s="13">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="G7" s="4">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="H7" s="4">
-        <f>INDEX($T$3:$T$12,MATCH(F7,$S$3:$S$12))</f>
-        <v>2</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="J7" s="6">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="K7" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="6">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="M7" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="6">
-        <f>INDEX($T$3:$T$12,MATCH(L7,$S$3:$S$12))</f>
-        <v>4</v>
-      </c>
-      <c r="O7" s="9">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="P7" s="12">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="Q7" s="13">
-        <f t="shared" si="0"/>
         <v>999999999999</v>
       </c>
       <c r="S7">
@@ -1090,7 +1119,7 @@
         <v>2</v>
       </c>
       <c r="W7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="X7" s="14">
@@ -1105,59 +1134,59 @@
         <v>9</v>
       </c>
       <c r="D8" s="4">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="K8" s="6">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L8" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="N8" s="6">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="9">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="P8" s="12">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="Q8" s="13">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F8" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="H8" s="4">
-        <f>INDEX($T$3:$T$12,MATCH(F8,$S$3:$S$12))</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="J8" s="6">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="K8" s="6">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="L8" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="6">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="N8" s="6">
-        <f>INDEX($T$3:$T$12,MATCH(L8,$S$3:$S$12))</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="9">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="P8" s="12">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="Q8" s="13">
-        <f t="shared" si="0"/>
         <v>999999999</v>
       </c>
       <c r="S8">
@@ -1167,7 +1196,7 @@
         <v>3</v>
       </c>
       <c r="W8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="X8" s="14">
@@ -1176,66 +1205,66 @@
     </row>
     <row r="9" spans="1:24" ht="12" x14ac:dyDescent="0.2">
       <c r="B9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="G9" s="4">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="H9" s="4">
-        <f>INDEX($T$3:$T$12,MATCH(F9,$S$3:$S$12))</f>
-        <v>3</v>
-      </c>
-      <c r="I9" s="4">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
+      <c r="G9" s="4">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
       <c r="J9" s="6">
-        <f t="shared" si="6"/>
-        <v>6</v>
+        <f t="shared" si="8"/>
+        <v>8</v>
       </c>
       <c r="K9" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L9" s="6">
-        <f t="shared" si="8"/>
-        <v>6</v>
+        <f t="shared" si="10"/>
+        <v>8</v>
       </c>
       <c r="M9" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N9" s="6">
-        <f>INDEX($T$3:$T$12,MATCH(L9,$S$3:$S$12))</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="O9" s="9">
-        <f t="shared" si="10"/>
-        <v>3</v>
+        <f t="shared" si="12"/>
+        <v>4</v>
       </c>
       <c r="P9" s="12">
-        <f t="shared" si="11"/>
-        <v>10</v>
+        <f t="shared" si="13"/>
+        <v>12</v>
       </c>
       <c r="Q9" s="13">
-        <f t="shared" si="0"/>
-        <v>99999999999999</v>
+        <f t="shared" si="2"/>
+        <v>9999999999999990</v>
       </c>
       <c r="S9">
         <v>6</v>
@@ -1244,7 +1273,7 @@
         <v>3</v>
       </c>
       <c r="W9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="X9" s="14">
@@ -1259,59 +1288,59 @@
         <v>2</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H10" s="4">
-        <f>INDEX($T$3:$T$12,MATCH(F10,$S$3:$S$12))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="J10" s="6">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="K10" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="6">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
+      <c r="K10" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
       <c r="M10" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N10" s="6">
-        <f>INDEX($T$3:$T$12,MATCH(L10,$S$3:$S$12))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O10" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="P10" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="Q10" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>99999999</v>
       </c>
       <c r="S10">
@@ -1321,7 +1350,7 @@
         <v>4</v>
       </c>
       <c r="W10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="X10" s="14">
@@ -1339,7 +1368,7 @@
         <v>4</v>
       </c>
       <c r="W11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="X11" s="14">
@@ -1357,7 +1386,7 @@
         <v>4</v>
       </c>
       <c r="W12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="X12" s="14">
@@ -1369,7 +1398,7 @@
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
       <c r="W13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="X13" s="14">
@@ -1381,7 +1410,7 @@
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
       <c r="W14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="X14" s="14">
@@ -1393,7 +1422,7 @@
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
       <c r="W15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="X15" s="14">
@@ -1405,7 +1434,7 @@
       <c r="P16" s="12"/>
       <c r="Q16" s="12"/>
       <c r="W16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="X16" s="14">
@@ -1417,7 +1446,7 @@
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
       <c r="W17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="X17" s="14">
@@ -1429,7 +1458,7 @@
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
       <c r="W18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="X18" s="14">
@@ -1441,7 +1470,7 @@
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
       <c r="W19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="X19" s="14">
@@ -1453,7 +1482,7 @@
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
       <c r="W20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="X20" s="14">
@@ -1465,7 +1494,7 @@
       <c r="P21" s="12"/>
       <c r="Q21" s="12"/>
       <c r="W21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>18</v>
       </c>
       <c r="X21" s="14">
@@ -1477,7 +1506,7 @@
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
       <c r="W22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>19</v>
       </c>
       <c r="X22" s="14">
@@ -1489,7 +1518,7 @@
       <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
       <c r="W23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="X23" s="14">
